--- a/학습자료/연표/고려_연도(왕)_후기.xlsx
+++ b/학습자료/연표/고려_연도(왕)_후기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>구분</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +489,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -509,6 +517,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -534,6 +545,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -559,6 +573,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +601,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -609,6 +629,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -634,6 +657,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -659,6 +685,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -684,6 +713,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -709,6 +741,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -734,6 +769,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -759,6 +797,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -784,6 +825,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -809,6 +853,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -834,6 +881,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -859,6 +909,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -884,6 +937,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -909,6 +965,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -934,6 +993,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -959,6 +1021,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -984,6 +1049,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1009,6 +1077,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1034,6 +1105,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1059,6 +1133,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1084,6 +1161,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1109,6 +1189,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1134,6 +1217,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1159,6 +1245,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1184,6 +1273,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1209,6 +1301,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1234,6 +1329,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1259,6 +1357,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1284,6 +1385,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1309,6 +1413,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1334,6 +1441,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1359,6 +1469,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1384,6 +1497,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1409,6 +1525,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1434,6 +1553,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1459,6 +1581,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1484,6 +1609,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1509,6 +1637,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1534,6 +1665,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1559,6 +1693,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1584,6 +1721,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1609,6 +1749,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1634,6 +1777,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1659,6 +1805,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1684,6 +1833,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1709,6 +1861,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1734,6 +1889,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1759,6 +1917,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1784,6 +1945,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1809,6 +1973,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1834,6 +2001,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1859,6 +2029,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1884,6 +2057,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1909,6 +2085,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1934,6 +2113,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1959,6 +2141,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1984,6 +2169,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2009,6 +2197,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2034,6 +2225,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2059,6 +2253,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2084,6 +2281,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2109,6 +2309,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2134,6 +2337,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2159,6 +2365,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2184,6 +2393,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2209,6 +2421,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2234,6 +2449,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2259,6 +2477,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2284,6 +2505,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2309,6 +2533,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2334,6 +2561,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2359,6 +2589,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2384,6 +2617,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2409,6 +2645,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2434,6 +2673,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2459,6 +2701,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2484,6 +2729,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2509,6 +2757,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2534,6 +2785,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2559,6 +2813,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2584,6 +2841,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2609,6 +2869,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2634,6 +2897,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2659,6 +2925,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2684,6 +2953,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2709,6 +2981,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2734,6 +3009,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2759,6 +3037,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2784,6 +3065,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2809,6 +3093,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2834,6 +3121,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2859,6 +3149,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2884,6 +3177,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2909,6 +3205,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2934,6 +3233,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2959,6 +3261,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2984,6 +3289,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3009,6 +3317,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3034,6 +3345,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3059,6 +3373,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3084,6 +3401,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3109,6 +3429,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3134,6 +3457,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3159,6 +3485,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3184,6 +3513,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3209,6 +3541,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3234,6 +3569,9 @@
           <t>후기</t>
         </is>
       </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3258,6 +3596,9 @@
         <is>
           <t>후기</t>
         </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
